--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7894570000000001</v>
+        <v>0.6537256666666666</v>
       </c>
       <c r="N2">
-        <v>2.368371</v>
+        <v>1.961177</v>
       </c>
       <c r="O2">
-        <v>0.09838606084581891</v>
+        <v>0.08287237534104652</v>
       </c>
       <c r="P2">
-        <v>0.09838606084581894</v>
+        <v>0.08287237534104651</v>
       </c>
       <c r="Q2">
-        <v>1.206587658136667</v>
+        <v>0.9991390553344445</v>
       </c>
       <c r="R2">
-        <v>10.85928892323</v>
+        <v>8.992251498010001</v>
       </c>
       <c r="S2">
-        <v>0.09838606084581891</v>
+        <v>0.08287237534104652</v>
       </c>
       <c r="T2">
-        <v>0.09838606084581894</v>
+        <v>0.08287237534104651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>16.877254</v>
       </c>
       <c r="O3">
-        <v>0.7011091332204036</v>
+        <v>0.7131728182689164</v>
       </c>
       <c r="P3">
-        <v>0.7011091332204038</v>
+        <v>0.7131728182689163</v>
       </c>
       <c r="Q3">
         <v>8.598267070335556</v>
@@ -632,10 +632,10 @@
         <v>77.38440363302001</v>
       </c>
       <c r="S3">
-        <v>0.7011091332204036</v>
+        <v>0.7131728182689164</v>
       </c>
       <c r="T3">
-        <v>0.7011091332204038</v>
+        <v>0.7131728182689163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>4.826596</v>
       </c>
       <c r="O4">
-        <v>0.2005048059337773</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="P4">
-        <v>0.2005048059337774</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="Q4">
         <v>2.458952235275556</v>
@@ -694,10 +694,10 @@
         <v>22.13057011748</v>
       </c>
       <c r="S4">
-        <v>0.2005048059337773</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="T4">
-        <v>0.2005048059337774</v>
+        <v>0.2039548063900371</v>
       </c>
     </row>
   </sheetData>
